--- a/biology/Botanique/Nabuchodonosor_(bouteille)/Nabuchodonosor_(bouteille).xlsx
+++ b/biology/Botanique/Nabuchodonosor_(bouteille)/Nabuchodonosor_(bouteille).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nabuchodonosor est une bouteille en verre conçue pour contenir l'équivalent de vingt bouteilles de 75 cl, soit quinze litres.
 Le nom est celui d'une dynastie babylonienne fondée par Nabuchodonosor Ier, un roi considéré comme le plus grand roi de la dynastie de Pashe (la « Seconde dynastie d'Isin ») .
